--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="October Pan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Month</t>
   </si>
@@ -62,12 +63,36 @@
   </si>
   <si>
     <t>Optional</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,9 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -436,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -520,4 +547,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:17" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>